--- a/SSWebScraper/SSWebScraper/Data/SeedData/DataSheets/EngineDisplacementTypeLanguage.xlsx
+++ b/SSWebScraper/SSWebScraper/Data/SeedData/DataSheets/EngineDisplacementTypeLanguage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T480\Desktop\MarketWatch\SSWebScraper\SSWebScraper\Data\SeedData\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC840A17-E379-4083-8157-EB9082702484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE23A1C-5C7A-4E2B-92FE-E0A57E0D9D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-5340" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>EngineDisplacementTypeId</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>DisplayOrder</t>
   </si>
   <si>
     <t>Nezinams</t>
@@ -372,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -384,7 +381,7 @@
     <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,25 +391,19 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100</v>
       </c>
@@ -422,11 +413,8 @@
       <c r="C3">
         <v>0.1</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>200</v>
       </c>
@@ -436,11 +424,8 @@
       <c r="C4">
         <v>0.2</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>300</v>
       </c>
@@ -450,11 +435,8 @@
       <c r="C5">
         <v>0.3</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>400</v>
       </c>
@@ -464,11 +446,8 @@
       <c r="C6">
         <v>0.4</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>500</v>
       </c>
@@ -478,11 +457,8 @@
       <c r="C7">
         <v>0.5</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>600</v>
       </c>
@@ -492,11 +468,8 @@
       <c r="C8">
         <v>0.6</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>700</v>
       </c>
@@ -506,11 +479,8 @@
       <c r="C9">
         <v>0.7</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>800</v>
       </c>
@@ -520,11 +490,8 @@
       <c r="C10">
         <v>0.8</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>900</v>
       </c>
@@ -534,11 +501,8 @@
       <c r="C11">
         <v>0.9</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1000</v>
       </c>
@@ -548,11 +512,8 @@
       <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1100</v>
       </c>
@@ -562,11 +523,8 @@
       <c r="C13" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1200</v>
       </c>
@@ -576,11 +534,8 @@
       <c r="C14" s="2">
         <v>1.2</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1300</v>
       </c>
@@ -590,11 +545,8 @@
       <c r="C15" s="1">
         <v>1.3</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1400</v>
       </c>
@@ -604,11 +556,8 @@
       <c r="C16" s="2">
         <v>1.4</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1500</v>
       </c>
@@ -618,11 +567,8 @@
       <c r="C17" s="1">
         <v>1.5</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1600</v>
       </c>
@@ -632,11 +578,8 @@
       <c r="C18" s="2">
         <v>1.6</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1700</v>
       </c>
@@ -646,11 +589,8 @@
       <c r="C19" s="1">
         <v>1.7</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1800</v>
       </c>
@@ -660,11 +600,8 @@
       <c r="C20" s="2">
         <v>1.8</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1900</v>
       </c>
@@ -674,11 +611,8 @@
       <c r="C21" s="1">
         <v>1.9</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2000</v>
       </c>
@@ -688,11 +622,8 @@
       <c r="C22" s="2">
         <v>2</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2100</v>
       </c>
@@ -702,11 +633,8 @@
       <c r="C23" s="1">
         <v>2.1</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2200</v>
       </c>
@@ -716,11 +644,8 @@
       <c r="C24" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2300</v>
       </c>
@@ -730,11 +655,8 @@
       <c r="C25" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2400</v>
       </c>
@@ -744,11 +666,8 @@
       <c r="C26" s="2">
         <v>2.4</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2500</v>
       </c>
@@ -758,11 +677,8 @@
       <c r="C27" s="2">
         <v>2.5</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2600</v>
       </c>
@@ -772,11 +688,8 @@
       <c r="C28" s="1">
         <v>2.6</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2700</v>
       </c>
@@ -786,11 +699,8 @@
       <c r="C29" s="2">
         <v>2.7</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2800</v>
       </c>
@@ -800,11 +710,8 @@
       <c r="C30" s="1">
         <v>2.8</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2900</v>
       </c>
@@ -814,11 +721,8 @@
       <c r="C31" s="2">
         <v>2.9</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3000</v>
       </c>
@@ -828,11 +732,8 @@
       <c r="C32" s="1">
         <v>3</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3100</v>
       </c>
@@ -842,11 +743,8 @@
       <c r="C33" s="2">
         <v>3.1</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3200</v>
       </c>
@@ -856,11 +754,8 @@
       <c r="C34" s="1">
         <v>3.2</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3300</v>
       </c>
@@ -870,11 +765,8 @@
       <c r="C35" s="2">
         <v>3.3</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3400</v>
       </c>
@@ -884,11 +776,8 @@
       <c r="C36" s="1">
         <v>3.4</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3500</v>
       </c>
@@ -898,11 +787,8 @@
       <c r="C37" s="2">
         <v>3.5</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3600</v>
       </c>
@@ -912,11 +798,8 @@
       <c r="C38" s="1">
         <v>3.6</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3700</v>
       </c>
@@ -926,11 +809,8 @@
       <c r="C39" s="2">
         <v>3.7</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3800</v>
       </c>
@@ -940,11 +820,8 @@
       <c r="C40" s="1">
         <v>3.8</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3900</v>
       </c>
@@ -954,11 +831,8 @@
       <c r="C41" s="2">
         <v>3.9</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>4000</v>
       </c>
@@ -968,11 +842,8 @@
       <c r="C42" s="2">
         <v>4</v>
       </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4100</v>
       </c>
@@ -982,11 +853,8 @@
       <c r="C43" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4200</v>
       </c>
@@ -996,11 +864,8 @@
       <c r="C44" s="2">
         <v>4.2</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4300</v>
       </c>
@@ -1010,11 +875,8 @@
       <c r="C45" s="1">
         <v>4.3</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4400</v>
       </c>
@@ -1024,11 +886,8 @@
       <c r="C46" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4500</v>
       </c>
@@ -1038,11 +897,8 @@
       <c r="C47" s="1">
         <v>4.5</v>
       </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>4600</v>
       </c>
@@ -1052,11 +908,8 @@
       <c r="C48" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4700</v>
       </c>
@@ -1066,11 +919,8 @@
       <c r="C49" s="1">
         <v>4.7</v>
       </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>4800</v>
       </c>
@@ -1080,11 +930,8 @@
       <c r="C50" s="2">
         <v>4.8</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4900</v>
       </c>
@@ -1094,11 +941,8 @@
       <c r="C51" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>5000</v>
       </c>
@@ -1108,11 +952,8 @@
       <c r="C52" s="2">
         <v>5</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5100</v>
       </c>
@@ -1122,11 +963,8 @@
       <c r="C53" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>5200</v>
       </c>
@@ -1136,11 +974,8 @@
       <c r="C54" s="2">
         <v>5.2</v>
       </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>5300</v>
       </c>
@@ -1150,11 +985,8 @@
       <c r="C55" s="1">
         <v>5.3</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>5400</v>
       </c>
@@ -1164,11 +996,8 @@
       <c r="C56" s="2">
         <v>5.4</v>
       </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5500</v>
       </c>
@@ -1178,11 +1007,8 @@
       <c r="C57" s="2">
         <v>5.5</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>5600</v>
       </c>
@@ -1192,11 +1018,8 @@
       <c r="C58" s="1">
         <v>5.6</v>
       </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>5700</v>
       </c>
@@ -1206,11 +1029,8 @@
       <c r="C59" s="2">
         <v>5.7</v>
       </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>5800</v>
       </c>
@@ -1220,11 +1040,8 @@
       <c r="C60" s="1">
         <v>5.8</v>
       </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>5900</v>
       </c>
@@ -1234,11 +1051,8 @@
       <c r="C61" s="2">
         <v>5.9</v>
       </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>6000</v>
       </c>
@@ -1248,11 +1062,8 @@
       <c r="C62" s="1">
         <v>6</v>
       </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>6100</v>
       </c>
@@ -1262,11 +1073,8 @@
       <c r="C63" s="2">
         <v>6.1</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6200</v>
       </c>
@@ -1276,11 +1084,8 @@
       <c r="C64" s="1">
         <v>6.2</v>
       </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>6300</v>
       </c>
@@ -1290,11 +1095,8 @@
       <c r="C65" s="2">
         <v>6.3</v>
       </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>6400</v>
       </c>
@@ -1304,11 +1106,8 @@
       <c r="C66" s="1">
         <v>6.4</v>
       </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>6500</v>
       </c>
@@ -1318,11 +1117,8 @@
       <c r="C67" s="2">
         <v>6.5000000000000098</v>
       </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>6600</v>
       </c>
@@ -1332,11 +1128,8 @@
       <c r="C68" s="1">
         <v>6.6</v>
       </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>6700</v>
       </c>
@@ -1346,11 +1139,8 @@
       <c r="C69" s="2">
         <v>6.7</v>
       </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>6800</v>
       </c>
@@ -1360,11 +1150,8 @@
       <c r="C70" s="1">
         <v>6.8000000000000096</v>
       </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>6900</v>
       </c>
@@ -1374,11 +1161,8 @@
       <c r="C71" s="2">
         <v>6.9000000000000101</v>
       </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>7000</v>
       </c>
@@ -1388,11 +1172,8 @@
       <c r="C72" s="2">
         <v>7.0000000000000098</v>
       </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>7100</v>
       </c>
@@ -1402,11 +1183,8 @@
       <c r="C73" s="1">
         <v>7.1</v>
       </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>7200</v>
       </c>
@@ -1416,11 +1194,8 @@
       <c r="C74" s="2">
         <v>7.2000000000000099</v>
       </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>7300</v>
       </c>
@@ -1430,11 +1205,8 @@
       <c r="C75" s="1">
         <v>7.3000000000000096</v>
       </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>7400</v>
       </c>
@@ -1444,11 +1216,8 @@
       <c r="C76" s="2">
         <v>7.4000000000000101</v>
       </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>7500</v>
       </c>
@@ -1458,11 +1227,8 @@
       <c r="C77" s="1">
         <v>7.5000000000000098</v>
       </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>7600</v>
       </c>
@@ -1472,11 +1238,8 @@
       <c r="C78" s="2">
         <v>7.6000000000000103</v>
       </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>7700</v>
       </c>
@@ -1486,11 +1249,8 @@
       <c r="C79" s="1">
         <v>7.7000000000000099</v>
       </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>7800</v>
       </c>
@@ -1500,11 +1260,8 @@
       <c r="C80" s="2">
         <v>7.8000000000000096</v>
       </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>7900</v>
       </c>
@@ -1514,11 +1271,8 @@
       <c r="C81" s="1">
         <v>7.9000000000000101</v>
       </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>8000</v>
       </c>
@@ -1528,11 +1282,8 @@
       <c r="C82" s="2">
         <v>8.0000000000000107</v>
       </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>8100</v>
       </c>
@@ -1542,11 +1293,8 @@
       <c r="C83" s="1">
         <v>8.1000000000000103</v>
       </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>8200</v>
       </c>
@@ -1556,11 +1304,8 @@
       <c r="C84" s="2">
         <v>8.2000000000000099</v>
       </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>8300</v>
       </c>
@@ -1570,11 +1315,8 @@
       <c r="C85" s="1">
         <v>8.3000000000000096</v>
       </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>8400</v>
       </c>
@@ -1584,11 +1326,8 @@
       <c r="C86" s="2">
         <v>8.4000000000000092</v>
       </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>8500</v>
       </c>
@@ -1598,11 +1337,8 @@
       <c r="C87" s="2">
         <v>8.5000000000000107</v>
       </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>8600</v>
       </c>
@@ -1612,11 +1348,8 @@
       <c r="C88" s="1">
         <v>8.6000000000000103</v>
       </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>8700</v>
       </c>
@@ -1626,11 +1359,8 @@
       <c r="C89" s="2">
         <v>8.7000000000000099</v>
       </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>8800</v>
       </c>
@@ -1640,11 +1370,8 @@
       <c r="C90" s="1">
         <v>8.8000000000000096</v>
       </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>8900</v>
       </c>
@@ -1654,11 +1381,8 @@
       <c r="C91" s="2">
         <v>8.9000000000000092</v>
       </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>9000</v>
       </c>
@@ -1668,11 +1392,8 @@
       <c r="C92" s="1">
         <v>9.0000000000000107</v>
       </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>9100</v>
       </c>
@@ -1682,11 +1403,8 @@
       <c r="C93" s="2">
         <v>9.1000000000000103</v>
       </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>9200</v>
       </c>
@@ -1696,11 +1414,8 @@
       <c r="C94" s="1">
         <v>9.2000000000000099</v>
       </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>9300</v>
       </c>
@@ -1710,11 +1425,8 @@
       <c r="C95" s="2">
         <v>9.3000000000000096</v>
       </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>9400</v>
       </c>
@@ -1724,11 +1436,8 @@
       <c r="C96" s="1">
         <v>9.4000000000000092</v>
       </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>9500</v>
       </c>
@@ -1738,11 +1447,8 @@
       <c r="C97" s="2">
         <v>9.5000000000000107</v>
       </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>9600</v>
       </c>
@@ -1752,11 +1458,8 @@
       <c r="C98" s="1">
         <v>9.6000000000000103</v>
       </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>9700</v>
       </c>
@@ -1766,11 +1469,8 @@
       <c r="C99" s="2">
         <v>9.7000000000000099</v>
       </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>9800</v>
       </c>
@@ -1780,11 +1480,8 @@
       <c r="C100" s="1">
         <v>9.8000000000000096</v>
       </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>9900</v>
       </c>
@@ -1794,11 +1491,8 @@
       <c r="C101" s="2">
         <v>9.9000000000000092</v>
       </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>10000</v>
       </c>
@@ -1807,9 +1501,6 @@
       </c>
       <c r="C102" s="2">
         <v>10</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
